--- a/file/output/py_Digital_BCL_3.0.xlsx
+++ b/file/output/py_Digital_BCL_3.0.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="variables" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="correlation" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="corr_pvalue" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="variables" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="correlation" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="corr_pvalue" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11368,7 +11368,7 @@
         <v>1.810420346211902e-36</v>
       </c>
       <c r="F2" t="n">
-        <v>3.832713819714213e-40</v>
+        <v>3.832713819713904e-40</v>
       </c>
       <c r="G2" t="n">
         <v>9.849222512281735e-38</v>
@@ -11411,7 +11411,7 @@
         <v>2.328593456751876e-34</v>
       </c>
       <c r="F3" t="n">
-        <v>8.553621419043612e-37</v>
+        <v>8.553621419042825e-37</v>
       </c>
       <c r="G3" t="n">
         <v>1.655737349375173e-35</v>
@@ -11423,7 +11423,7 @@
         <v>0.561917944573805</v>
       </c>
       <c r="J3" t="n">
-        <v>1.463122899997687e-10</v>
+        <v>1.463122899997726e-10</v>
       </c>
       <c r="K3" t="n">
         <v>0.01885335699510446</v>
@@ -11451,7 +11451,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>4.802562219929936e-35</v>
+        <v>4.802562219929624e-35</v>
       </c>
       <c r="F4" t="n">
         <v>4.581416709330832e-37</v>
@@ -11491,7 +11491,7 @@
         <v>2.328593456751876e-34</v>
       </c>
       <c r="D5" t="n">
-        <v>4.802562219929936e-35</v>
+        <v>4.802562219929624e-35</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -11528,10 +11528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.832713819714213e-40</v>
+        <v>3.832713819713904e-40</v>
       </c>
       <c r="C6" t="n">
-        <v>8.553621419043612e-37</v>
+        <v>8.553621419042825e-37</v>
       </c>
       <c r="D6" t="n">
         <v>4.581416709330832e-37</v>
@@ -11641,7 +11641,7 @@
         <v>8.567317451804669e-20</v>
       </c>
       <c r="K8" t="n">
-        <v>4.646426098010521e-16</v>
+        <v>4.646426098010691e-16</v>
       </c>
       <c r="L8" t="n">
         <v>6.784874775059351e-16</v>
@@ -11681,13 +11681,13 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>9.435393262408734e-06</v>
+        <v>9.435393262408852e-06</v>
       </c>
       <c r="K9" t="n">
         <v>0.001489347042742114</v>
       </c>
       <c r="L9" t="n">
-        <v>9.422647761351747e-09</v>
+        <v>9.422647761351499e-09</v>
       </c>
       <c r="M9" t="n">
         <v>1.532956816780747e-06</v>
@@ -11703,7 +11703,7 @@
         <v>1.775634638443846e-10</v>
       </c>
       <c r="C10" t="n">
-        <v>1.463122899997687e-10</v>
+        <v>1.463122899997726e-10</v>
       </c>
       <c r="D10" t="n">
         <v>1.598392398252296e-10</v>
@@ -11721,7 +11721,7 @@
         <v>8.567317451804669e-20</v>
       </c>
       <c r="I10" t="n">
-        <v>9.435393262408734e-06</v>
+        <v>9.435393262408852e-06</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -11733,7 +11733,7 @@
         <v>5.429004327700111e-64</v>
       </c>
       <c r="M10" t="n">
-        <v>1.811075299323454e-51</v>
+        <v>1.811075299323263e-51</v>
       </c>
     </row>
     <row r="11">
@@ -11761,7 +11761,7 @@
         <v>0.4056690051045342</v>
       </c>
       <c r="H11" t="n">
-        <v>4.646426098010521e-16</v>
+        <v>4.646426098010691e-16</v>
       </c>
       <c r="I11" t="n">
         <v>0.001489347042742114</v>
@@ -11807,7 +11807,7 @@
         <v>6.784874775059351e-16</v>
       </c>
       <c r="I12" t="n">
-        <v>9.422647761351747e-09</v>
+        <v>9.422647761351499e-09</v>
       </c>
       <c r="J12" t="n">
         <v>5.429004327700111e-64</v>
@@ -11853,7 +11853,7 @@
         <v>1.532956816780747e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>1.811075299323454e-51</v>
+        <v>1.811075299323263e-51</v>
       </c>
       <c r="K13" t="n">
         <v>3.299744437900828e-20</v>
